--- a/pv0.xlsx
+++ b/pv0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HTML\HSPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dH1C618g+8kDQHKHWKUwgDfRjaKUak2WeNnWxj17v32ZmpD421bf7tLPR6gBRXkD9XSIAnbnOdfqRloeSbVeew==" workbookSaltValue="koFUtcjeVN5pjsM5bcQHBg==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tuvk0fWhAmg1/P65oTOnE3xVOJwnZbyOJUXo7l3h+ZjL8dVH8z2scdsRKErCuD9kAPIN0Txq6zOGRfgac8mngg==" workbookSaltValue="jdD0T+nPqNm0qB9uV0i7ZA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yuesterday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aftraid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2437,6 +2433,10 @@
   </si>
   <si>
     <t>실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yesterday</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2770,8 +2770,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="G288" sqref="G288"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2801,7 +2801,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2815,7 +2815,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2829,7 +2829,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2843,7 +2843,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2857,7 +2857,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2871,7 +2871,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2885,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2899,7 +2899,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2913,7 +2913,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2927,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2941,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2955,7 +2955,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2983,7 +2983,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2997,7 +2997,7 @@
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3011,7 +3011,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3025,7 +3025,7 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3039,7 +3039,7 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3053,7 +3053,7 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3067,7 +3067,7 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3081,7 +3081,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3095,7 +3095,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3109,7 +3109,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -3123,7 +3123,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -3137,7 +3137,7 @@
         <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -3151,7 +3151,7 @@
         <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -3165,7 +3165,7 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -3179,7 +3179,7 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -3193,7 +3193,7 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -3207,7 +3207,7 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -3221,7 +3221,7 @@
         <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -3235,7 +3235,7 @@
         <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3249,7 +3249,7 @@
         <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3263,7 +3263,7 @@
         <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3274,10 +3274,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>602</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3288,10 +3288,10 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3302,10 +3302,10 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3316,10 +3316,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3330,10 +3330,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3344,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3358,10 +3358,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3372,10 +3372,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3386,10 +3386,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3400,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3414,10 +3414,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3428,10 +3428,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3442,10 +3442,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3456,10 +3456,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3470,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3484,10 +3484,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3498,10 +3498,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3512,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3526,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3540,10 +3540,10 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3554,10 +3554,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3568,10 +3568,10 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3582,10 +3582,10 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3596,10 +3596,10 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3610,10 +3610,10 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3624,10 +3624,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3638,10 +3638,10 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3652,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3666,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3680,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3694,10 +3694,10 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3708,10 +3708,10 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3722,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3736,10 +3736,10 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3764,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3778,10 +3778,10 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3792,10 +3792,10 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3806,10 +3806,10 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3820,10 +3820,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3834,10 +3834,10 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3848,10 +3848,10 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3862,10 +3862,10 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3876,10 +3876,10 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D79" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3890,10 +3890,10 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D80" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3904,10 +3904,10 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3918,10 +3918,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3932,10 +3932,10 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3946,10 +3946,10 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3960,10 +3960,10 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3974,10 +3974,10 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3988,10 +3988,10 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -4002,10 +4002,10 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -4016,10 +4016,10 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -4030,10 +4030,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -4044,10 +4044,10 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -4058,10 +4058,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -4072,10 +4072,10 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -4086,10 +4086,10 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -4100,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -4114,10 +4114,10 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -4128,10 +4128,10 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -4142,10 +4142,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -4156,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -4170,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4184,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4198,10 +4198,10 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4212,10 +4212,10 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4226,10 +4226,10 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4240,10 +4240,10 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4254,10 +4254,10 @@
         <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -4268,10 +4268,10 @@
         <v>2</v>
       </c>
       <c r="C107" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4282,10 +4282,10 @@
         <v>2</v>
       </c>
       <c r="C108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -4296,10 +4296,10 @@
         <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -4310,10 +4310,10 @@
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -4324,10 +4324,10 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -4338,10 +4338,10 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D112" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -4352,10 +4352,10 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -4366,10 +4366,10 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D114" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -4380,10 +4380,10 @@
         <v>2</v>
       </c>
       <c r="C115" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -4394,10 +4394,10 @@
         <v>2</v>
       </c>
       <c r="C116" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -4408,10 +4408,10 @@
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D117" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4422,10 +4422,10 @@
         <v>2</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -4436,10 +4436,10 @@
         <v>2</v>
       </c>
       <c r="C119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D119" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -4450,10 +4450,10 @@
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D120" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -4464,10 +4464,10 @@
         <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -4478,10 +4478,10 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D122" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -4492,10 +4492,10 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D123" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4506,10 +4506,10 @@
         <v>2</v>
       </c>
       <c r="C124" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4520,10 +4520,10 @@
         <v>2</v>
       </c>
       <c r="C125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4534,10 +4534,10 @@
         <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D126" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4548,10 +4548,10 @@
         <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D127" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -4562,10 +4562,10 @@
         <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D128" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4576,10 +4576,10 @@
         <v>2</v>
       </c>
       <c r="C129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D129" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4590,10 +4590,10 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D130" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4604,10 +4604,10 @@
         <v>2</v>
       </c>
       <c r="C131" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D131" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4618,10 +4618,10 @@
         <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D132" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4632,10 +4632,10 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D133" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4646,10 +4646,10 @@
         <v>2</v>
       </c>
       <c r="C134" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D134" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4660,10 +4660,10 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D135" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -4674,10 +4674,10 @@
         <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -4688,10 +4688,10 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D137" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -4702,10 +4702,10 @@
         <v>2</v>
       </c>
       <c r="C138" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D138" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4716,10 +4716,10 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D139" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4730,10 +4730,10 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D140" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -4744,10 +4744,10 @@
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D141" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -4758,10 +4758,10 @@
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D142" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4772,10 +4772,10 @@
         <v>2</v>
       </c>
       <c r="C143" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D143" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -4786,10 +4786,10 @@
         <v>2</v>
       </c>
       <c r="C144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -4800,10 +4800,10 @@
         <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D145" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4814,10 +4814,10 @@
         <v>2</v>
       </c>
       <c r="C146" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D146" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -4828,10 +4828,10 @@
         <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D147" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -4842,10 +4842,10 @@
         <v>2</v>
       </c>
       <c r="C148" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D148" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -4856,10 +4856,10 @@
         <v>2</v>
       </c>
       <c r="C149" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D149" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -4870,10 +4870,10 @@
         <v>2</v>
       </c>
       <c r="C150" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D150" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -4884,10 +4884,10 @@
         <v>2</v>
       </c>
       <c r="C151" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D151" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4898,10 +4898,10 @@
         <v>2</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D152" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -4912,10 +4912,10 @@
         <v>2</v>
       </c>
       <c r="C153" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D153" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4926,10 +4926,10 @@
         <v>2</v>
       </c>
       <c r="C154" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D154" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -4940,10 +4940,10 @@
         <v>2</v>
       </c>
       <c r="C155" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D155" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -4954,10 +4954,10 @@
         <v>2</v>
       </c>
       <c r="C156" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D156" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -4968,10 +4968,10 @@
         <v>2</v>
       </c>
       <c r="C157" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D157" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -4982,10 +4982,10 @@
         <v>2</v>
       </c>
       <c r="C158" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D158" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -4996,10 +4996,10 @@
         <v>2</v>
       </c>
       <c r="C159" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D159" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -5010,10 +5010,10 @@
         <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D160" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -5024,10 +5024,10 @@
         <v>2</v>
       </c>
       <c r="C161" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D161" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -5038,10 +5038,10 @@
         <v>2</v>
       </c>
       <c r="C162" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D162" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -5052,10 +5052,10 @@
         <v>2</v>
       </c>
       <c r="C163" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D163" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -5066,10 +5066,10 @@
         <v>2</v>
       </c>
       <c r="C164" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D164" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -5080,10 +5080,10 @@
         <v>2</v>
       </c>
       <c r="C165" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D165" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -5094,10 +5094,10 @@
         <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D166" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -5108,10 +5108,10 @@
         <v>2</v>
       </c>
       <c r="C167" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D167" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -5122,10 +5122,10 @@
         <v>2</v>
       </c>
       <c r="C168" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D168" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -5136,10 +5136,10 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D169" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -5150,10 +5150,10 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D170" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -5164,10 +5164,10 @@
         <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D171" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -5178,10 +5178,10 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D172" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -5192,10 +5192,10 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D173" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -5206,10 +5206,10 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D174" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -5220,10 +5220,10 @@
         <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D175" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -5234,10 +5234,10 @@
         <v>2</v>
       </c>
       <c r="C176" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -5248,10 +5248,10 @@
         <v>2</v>
       </c>
       <c r="C177" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D177" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -5262,10 +5262,10 @@
         <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D178" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5276,10 +5276,10 @@
         <v>2</v>
       </c>
       <c r="C179" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D179" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5290,10 +5290,10 @@
         <v>2</v>
       </c>
       <c r="C180" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D180" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5304,10 +5304,10 @@
         <v>2</v>
       </c>
       <c r="C181" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D181" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5318,10 +5318,10 @@
         <v>2</v>
       </c>
       <c r="C182" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D182" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5332,10 +5332,10 @@
         <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D183" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5346,10 +5346,10 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D184" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5360,10 +5360,10 @@
         <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D185" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5374,10 +5374,10 @@
         <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D186" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5388,10 +5388,10 @@
         <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D187" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5402,10 +5402,10 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D188" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -5416,10 +5416,10 @@
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5430,10 +5430,10 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D190" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -5444,10 +5444,10 @@
         <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D191" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -5458,10 +5458,10 @@
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D192" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -5472,10 +5472,10 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D193" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5486,10 +5486,10 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5500,10 +5500,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D195" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -5514,10 +5514,10 @@
         <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D196" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -5528,10 +5528,10 @@
         <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D197" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5542,10 +5542,10 @@
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D198" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -5556,10 +5556,10 @@
         <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D199" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5570,10 +5570,10 @@
         <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D200" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5584,10 +5584,10 @@
         <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D201" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5598,10 +5598,10 @@
         <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D202" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5612,10 +5612,10 @@
         <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D203" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5626,10 +5626,10 @@
         <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D204" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5640,10 +5640,10 @@
         <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D205" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5654,10 +5654,10 @@
         <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D206" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -5668,10 +5668,10 @@
         <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D207" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -5682,10 +5682,10 @@
         <v>3</v>
       </c>
       <c r="C208" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D208" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,10 +5696,10 @@
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D209" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5710,10 +5710,10 @@
         <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D210" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -5724,10 +5724,10 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D211" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5738,10 +5738,10 @@
         <v>3</v>
       </c>
       <c r="C212" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D212" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -5752,10 +5752,10 @@
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D213" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5766,10 +5766,10 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D214" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -5780,10 +5780,10 @@
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D215" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -5794,10 +5794,10 @@
         <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D216" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5808,10 +5808,10 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D217" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5822,10 +5822,10 @@
         <v>3</v>
       </c>
       <c r="C218" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D218" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -5836,10 +5836,10 @@
         <v>3</v>
       </c>
       <c r="C219" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D219" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5850,10 +5850,10 @@
         <v>3</v>
       </c>
       <c r="C220" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D220" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -5864,10 +5864,10 @@
         <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D221" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -5878,10 +5878,10 @@
         <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D222" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5892,10 +5892,10 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D223" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5906,10 +5906,10 @@
         <v>3</v>
       </c>
       <c r="C224" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D224" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -5920,10 +5920,10 @@
         <v>3</v>
       </c>
       <c r="C225" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D225" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5934,10 +5934,10 @@
         <v>3</v>
       </c>
       <c r="C226" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D226" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5948,10 +5948,10 @@
         <v>3</v>
       </c>
       <c r="C227" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D227" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -5962,10 +5962,10 @@
         <v>3</v>
       </c>
       <c r="C228" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D228" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -5976,10 +5976,10 @@
         <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D229" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -5990,10 +5990,10 @@
         <v>3</v>
       </c>
       <c r="C230" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D230" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -6004,10 +6004,10 @@
         <v>3</v>
       </c>
       <c r="C231" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D231" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -6018,10 +6018,10 @@
         <v>3</v>
       </c>
       <c r="C232" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D232" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -6032,10 +6032,10 @@
         <v>3</v>
       </c>
       <c r="C233" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D233" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -6046,10 +6046,10 @@
         <v>3</v>
       </c>
       <c r="C234" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D234" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -6060,10 +6060,10 @@
         <v>3</v>
       </c>
       <c r="C235" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D235" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -6074,10 +6074,10 @@
         <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D236" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -6088,10 +6088,10 @@
         <v>3</v>
       </c>
       <c r="C237" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D237" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -6102,10 +6102,10 @@
         <v>3</v>
       </c>
       <c r="C238" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D238" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -6116,10 +6116,10 @@
         <v>3</v>
       </c>
       <c r="C239" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D239" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -6130,10 +6130,10 @@
         <v>3</v>
       </c>
       <c r="C240" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D240" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -6144,10 +6144,10 @@
         <v>3</v>
       </c>
       <c r="C241" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D241" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -6158,10 +6158,10 @@
         <v>3</v>
       </c>
       <c r="C242" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D242" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -6172,10 +6172,10 @@
         <v>3</v>
       </c>
       <c r="C243" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D243" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -6186,10 +6186,10 @@
         <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D244" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -6200,10 +6200,10 @@
         <v>3</v>
       </c>
       <c r="C245" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D245" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -6214,10 +6214,10 @@
         <v>3</v>
       </c>
       <c r="C246" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D246" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -6228,10 +6228,10 @@
         <v>3</v>
       </c>
       <c r="C247" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D247" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -6242,10 +6242,10 @@
         <v>3</v>
       </c>
       <c r="C248" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6256,10 +6256,10 @@
         <v>3</v>
       </c>
       <c r="C249" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D249" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -6270,10 +6270,10 @@
         <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D250" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6284,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="C251" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D251" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -6298,10 +6298,10 @@
         <v>3</v>
       </c>
       <c r="C252" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D252" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -6312,10 +6312,10 @@
         <v>3</v>
       </c>
       <c r="C253" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D253" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6326,10 +6326,10 @@
         <v>3</v>
       </c>
       <c r="C254" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D254" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -6340,10 +6340,10 @@
         <v>3</v>
       </c>
       <c r="C255" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D255" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6354,10 +6354,10 @@
         <v>3</v>
       </c>
       <c r="C256" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D256" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -6368,10 +6368,10 @@
         <v>3</v>
       </c>
       <c r="C257" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D257" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6382,10 +6382,10 @@
         <v>3</v>
       </c>
       <c r="C258" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D258" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6396,10 +6396,10 @@
         <v>3</v>
       </c>
       <c r="C259" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D259" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -6410,10 +6410,10 @@
         <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D260" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -6424,10 +6424,10 @@
         <v>3</v>
       </c>
       <c r="C261" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D261" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -6438,10 +6438,10 @@
         <v>3</v>
       </c>
       <c r="C262" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D262" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6452,10 +6452,10 @@
         <v>3</v>
       </c>
       <c r="C263" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D263" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6466,10 +6466,10 @@
         <v>3</v>
       </c>
       <c r="C264" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D264" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6480,10 +6480,10 @@
         <v>3</v>
       </c>
       <c r="C265" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D265" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6494,10 +6494,10 @@
         <v>3</v>
       </c>
       <c r="C266" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D266" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6508,10 +6508,10 @@
         <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D267" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6522,10 +6522,10 @@
         <v>3</v>
       </c>
       <c r="C268" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D268" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6536,10 +6536,10 @@
         <v>3</v>
       </c>
       <c r="C269" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D269" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6550,10 +6550,10 @@
         <v>3</v>
       </c>
       <c r="C270" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D270" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6564,10 +6564,10 @@
         <v>3</v>
       </c>
       <c r="C271" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D271" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6578,10 +6578,10 @@
         <v>3</v>
       </c>
       <c r="C272" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D272" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -6592,10 +6592,10 @@
         <v>3</v>
       </c>
       <c r="C273" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D273" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6606,10 +6606,10 @@
         <v>3</v>
       </c>
       <c r="C274" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D274" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6620,10 +6620,10 @@
         <v>3</v>
       </c>
       <c r="C275" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D275" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -6634,10 +6634,10 @@
         <v>3</v>
       </c>
       <c r="C276" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D276" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -6648,10 +6648,10 @@
         <v>3</v>
       </c>
       <c r="C277" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D277" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6662,10 +6662,10 @@
         <v>3</v>
       </c>
       <c r="C278" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D278" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -6676,10 +6676,10 @@
         <v>3</v>
       </c>
       <c r="C279" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D279" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -6690,10 +6690,10 @@
         <v>3</v>
       </c>
       <c r="C280" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D280" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -6704,10 +6704,10 @@
         <v>3</v>
       </c>
       <c r="C281" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D281" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -6718,10 +6718,10 @@
         <v>3</v>
       </c>
       <c r="C282" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D282" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -6732,10 +6732,10 @@
         <v>3</v>
       </c>
       <c r="C283" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D283" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -6746,10 +6746,10 @@
         <v>3</v>
       </c>
       <c r="C284" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D284" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -6760,10 +6760,10 @@
         <v>3</v>
       </c>
       <c r="C285" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D285" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -6774,10 +6774,10 @@
         <v>3</v>
       </c>
       <c r="C286" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D286" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -6788,10 +6788,10 @@
         <v>3</v>
       </c>
       <c r="C287" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D287" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -6802,10 +6802,10 @@
         <v>3</v>
       </c>
       <c r="C288" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D288" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -6816,10 +6816,10 @@
         <v>3</v>
       </c>
       <c r="C289" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D289" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -6830,10 +6830,10 @@
         <v>3</v>
       </c>
       <c r="C290" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D290" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -6844,10 +6844,10 @@
         <v>3</v>
       </c>
       <c r="C291" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D291" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -6858,10 +6858,10 @@
         <v>3</v>
       </c>
       <c r="C292" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D292" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -6872,10 +6872,10 @@
         <v>3</v>
       </c>
       <c r="C293" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D293" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -6886,10 +6886,10 @@
         <v>3</v>
       </c>
       <c r="C294" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D294" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -6900,10 +6900,10 @@
         <v>3</v>
       </c>
       <c r="C295" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D295" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -6914,10 +6914,10 @@
         <v>3</v>
       </c>
       <c r="C296" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D296" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -6928,10 +6928,10 @@
         <v>3</v>
       </c>
       <c r="C297" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D297" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -6942,10 +6942,10 @@
         <v>3</v>
       </c>
       <c r="C298" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D298" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -6956,10 +6956,10 @@
         <v>3</v>
       </c>
       <c r="C299" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D299" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -6970,10 +6970,10 @@
         <v>3</v>
       </c>
       <c r="C300" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D300" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -6984,10 +6984,10 @@
         <v>3</v>
       </c>
       <c r="C301" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D301" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -7002,7 +7002,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
